--- a/tmacbd/tmacbd.xlsx
+++ b/tmacbd/tmacbd.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nafees\Desktop\Intigsol\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nafees\Desktop\office\tmacbd\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1242D35-4C23-474D-8799-F012DB8B225F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DECB1BD-447A-49BC-AF12-5A2C41253741}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="48">
   <si>
     <t>Product Name</t>
   </si>
@@ -141,6 +141,47 @@
   <si>
     <t xml:space="preserve">
 </t>
+  </si>
+  <si>
+    <t>tmacbd.com</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>Home page</t>
+  </si>
+  <si>
+    <t>1.Go to the website
+2.Click on logo</t>
+  </si>
+  <si>
+    <t>Will go to the home page</t>
+  </si>
+  <si>
+    <t>No movement</t>
+  </si>
+  <si>
+    <t>1.Go to the website
+2.Click on home button</t>
+  </si>
+  <si>
+    <t>Will go the home page</t>
+  </si>
+  <si>
+    <t>It's workes properly</t>
+  </si>
+  <si>
+    <t>Navbar</t>
+  </si>
+  <si>
+    <t>1.Click on navbar social icon's</t>
+  </si>
+  <si>
+    <t>Do not work</t>
+  </si>
+  <si>
+    <t>Social sites will bring them to there own site profile</t>
   </si>
 </sst>
 </file>
@@ -244,7 +285,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -296,6 +337,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00CC00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -402,7 +449,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -568,6 +615,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1391,7 +1441,7 @@
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D9" sqref="D9"/>
+      <selection pane="bottomLeft" activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -1414,11 +1464,15 @@
         <v>0</v>
       </c>
       <c r="B1" s="51"/>
-      <c r="C1" s="40"/>
+      <c r="C1" s="40" t="s">
+        <v>35</v>
+      </c>
       <c r="D1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="41"/>
+      <c r="E1" s="41">
+        <v>44563</v>
+      </c>
       <c r="F1" s="4" t="s">
         <v>2</v>
       </c>
@@ -1428,7 +1482,7 @@
       </c>
       <c r="I1" s="51"/>
     </row>
-    <row r="2" spans="1:9" ht="12.75">
+    <row r="2" spans="1:9" ht="30" customHeight="1">
       <c r="A2" s="55" t="s">
         <v>4</v>
       </c>
@@ -1447,7 +1501,7 @@
       </c>
       <c r="I2" s="31">
         <f>COUNTIF(G7:G48,"PASS")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="18" customHeight="1">
@@ -1471,7 +1525,7 @@
       </c>
       <c r="I3" s="32">
         <f>COUNTIF(G7:G48,"Fail")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="18" customHeight="1">
@@ -1487,13 +1541,15 @@
       <c r="F4" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="G4" s="9"/>
+      <c r="G4" s="9" t="s">
+        <v>36</v>
+      </c>
       <c r="H4" s="3" t="s">
         <v>14</v>
       </c>
       <c r="I4" s="33">
-        <f>COUNTIF(G8:G48,"Warning")</f>
-        <v>0</v>
+        <f>COUNTIF(G7:G48,"Warning")</f>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="18" customHeight="1">
@@ -1511,7 +1567,7 @@
       </c>
       <c r="I5" s="34">
         <f>SUM(I2:I4:I3)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="18" customHeight="1">
@@ -1540,30 +1596,48 @@
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="60.6" customHeight="1">
+    <row r="7" spans="1:9" ht="36.75" customHeight="1">
       <c r="A7" s="35" t="s">
         <v>25</v>
       </c>
-      <c r="B7" s="14"/>
+      <c r="B7" s="14" t="s">
+        <v>37</v>
+      </c>
       <c r="C7" s="15"/>
-      <c r="D7" s="36"/>
-      <c r="E7" s="14"/>
-      <c r="F7" s="16"/>
-      <c r="G7" s="17"/>
+      <c r="D7" s="36" t="s">
+        <v>38</v>
+      </c>
+      <c r="E7" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="F7" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="G7" s="17" t="s">
+        <v>14</v>
+      </c>
       <c r="H7" s="44"/>
     </row>
-    <row r="8" spans="1:9" ht="25.5">
+    <row r="8" spans="1:9" ht="29.25" customHeight="1">
       <c r="A8" s="13" t="s">
         <v>26</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="C8" s="15"/>
-      <c r="D8" s="14"/>
-      <c r="E8" s="14"/>
-      <c r="F8" s="14"/>
-      <c r="G8" s="17"/>
+      <c r="D8" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="E8" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="F8" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="G8" s="17" t="s">
+        <v>10</v>
+      </c>
       <c r="H8" s="44"/>
     </row>
     <row r="9" spans="1:9" ht="25.5">
@@ -1571,13 +1645,21 @@
         <v>27</v>
       </c>
       <c r="B9" s="14" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C9" s="15"/>
-      <c r="D9" s="14"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="14"/>
-      <c r="G9" s="49"/>
+      <c r="D9" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="E9" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="F9" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="G9" s="56" t="s">
+        <v>7</v>
+      </c>
       <c r="H9" s="44"/>
     </row>
     <row r="10" spans="1:9" ht="25.5">

--- a/tmacbd/tmacbd.xlsx
+++ b/tmacbd/tmacbd.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nafees\Desktop\office\tmacbd\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DECB1BD-447A-49BC-AF12-5A2C41253741}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62917066-054F-4E9E-BF15-F9DD9351A506}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="148">
   <si>
     <t>Product Name</t>
   </si>
@@ -137,10 +137,6 @@
   </si>
   <si>
     <t>TC008</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-</t>
   </si>
   <si>
     <t>tmacbd.com</t>
@@ -159,9 +155,6 @@
     <t>Will go to the home page</t>
   </si>
   <si>
-    <t>No movement</t>
-  </si>
-  <si>
     <t>1.Go to the website
 2.Click on home button</t>
   </si>
@@ -178,10 +171,336 @@
     <t>1.Click on navbar social icon's</t>
   </si>
   <si>
-    <t>Do not work</t>
-  </si>
-  <si>
     <t>Social sites will bring them to there own site profile</t>
+  </si>
+  <si>
+    <t>OK</t>
+  </si>
+  <si>
+    <t>It's good</t>
+  </si>
+  <si>
+    <t>Icon's have no link</t>
+  </si>
+  <si>
+    <t>1.Banner</t>
+  </si>
+  <si>
+    <t>Will have perfect text or things</t>
+  </si>
+  <si>
+    <t>Text format is different or font's are not ok</t>
+  </si>
+  <si>
+    <t>1.Go to the website</t>
+  </si>
+  <si>
+    <t>The site can be seen in full screen</t>
+  </si>
+  <si>
+    <t>1.Go to the Our Company section
+2.Go to the E-Commerce Solutions card</t>
+  </si>
+  <si>
+    <t>Content's will be perfect</t>
+  </si>
+  <si>
+    <t>One text is not ok " clientâ€™s "</t>
+  </si>
+  <si>
+    <t>1.Go to Product &amp; Character Design card</t>
+  </si>
+  <si>
+    <t>One text is not ok " characterâ€™s "</t>
+  </si>
+  <si>
+    <t>One text is not ok " thereâ€™s "</t>
+  </si>
+  <si>
+    <t>TC009</t>
+  </si>
+  <si>
+    <t>1.Go to Art &amp; Illustrations card</t>
+  </si>
+  <si>
+    <t>1.Go to Our Company section
+2.Scroll
+3.Go to Industry we serve section</t>
+  </si>
+  <si>
+    <t>The gap between two section is big</t>
+  </si>
+  <si>
+    <t>Gap and spase will perfect</t>
+  </si>
+  <si>
+    <t>TC010</t>
+  </si>
+  <si>
+    <t>1.Go to the industry we serve section
+2.Click to contact us button</t>
+  </si>
+  <si>
+    <t>Will go to contact us page</t>
+  </si>
+  <si>
+    <t>It's OK</t>
+  </si>
+  <si>
+    <t>TC011</t>
+  </si>
+  <si>
+    <t>1.MANAGED IT SERVICES card
+2.CO MANAGED IT SERVICES card
+3.PROFESSIONAL SERVICES card
+4Click SHOW MORE button</t>
+  </si>
+  <si>
+    <t>Will show more about card's component</t>
+  </si>
+  <si>
+    <t>Not showing anything</t>
+  </si>
+  <si>
+    <t>TC012</t>
+  </si>
+  <si>
+    <t>1.First carousel slide</t>
+  </si>
+  <si>
+    <t>There is worng content " guys!â€ "</t>
+  </si>
+  <si>
+    <t>TC013</t>
+  </si>
+  <si>
+    <t>1.View Our Work section</t>
+  </si>
+  <si>
+    <t>Will show some demo of our work</t>
+  </si>
+  <si>
+    <t>Nothing to show</t>
+  </si>
+  <si>
+    <t>TC014</t>
+  </si>
+  <si>
+    <t>1.View Our Work section
+2.Scroll to the end
+3.Last banner with view gallery button</t>
+  </si>
+  <si>
+    <t>The gap between this two section should be perfect</t>
+  </si>
+  <si>
+    <t>There is a big gap</t>
+  </si>
+  <si>
+    <t>TC015</t>
+  </si>
+  <si>
+    <t>1.Last banner
+2.Click on gallery button</t>
+  </si>
+  <si>
+    <t>Will show the gallery page</t>
+  </si>
+  <si>
+    <t>TC016</t>
+  </si>
+  <si>
+    <t>FOOTER</t>
+  </si>
+  <si>
+    <t>1.Recent workes
+1.Click on recent works content's</t>
+  </si>
+  <si>
+    <t>Will show the recent works page which was clicked</t>
+  </si>
+  <si>
+    <t>Goes to the home page</t>
+  </si>
+  <si>
+    <t>TC017</t>
+  </si>
+  <si>
+    <t>1.Enter your e-mail form
+2.Click send</t>
+  </si>
+  <si>
+    <t>only email address can be send</t>
+  </si>
+  <si>
+    <t>Any text can send</t>
+  </si>
+  <si>
+    <t>TC018</t>
+  </si>
+  <si>
+    <t>FOOTER menu</t>
+  </si>
+  <si>
+    <t>1.Click Home
+2.Click About
+3.Click Team
+4.Click Gallery
+5.Click Contacts</t>
+  </si>
+  <si>
+    <t>All button's should run</t>
+  </si>
+  <si>
+    <t>They are working</t>
+  </si>
+  <si>
+    <t>TC019</t>
+  </si>
+  <si>
+    <t>The site goes off the screen and comes a scroll bar in the bottom of the screen in home page</t>
+  </si>
+  <si>
+    <t>Text : test</t>
+  </si>
+  <si>
+    <t>1.Click about</t>
+  </si>
+  <si>
+    <t>Will go to about page</t>
+  </si>
+  <si>
+    <t>Done</t>
+  </si>
+  <si>
+    <t>TC020</t>
+  </si>
+  <si>
+    <t>About page</t>
+  </si>
+  <si>
+    <t>Will have social midea link</t>
+  </si>
+  <si>
+    <t>No link given</t>
+  </si>
+  <si>
+    <t>TC021</t>
+  </si>
+  <si>
+    <t>1.Click Linked In logo</t>
+  </si>
+  <si>
+    <t>It's working</t>
+  </si>
+  <si>
+    <t>TC022</t>
+  </si>
+  <si>
+    <t>1.MANAGING DIRECTOR section
+2.Click Facebook logo
+3.Click Twitter logo
+4.Click Intagram logo</t>
+  </si>
+  <si>
+    <t>1.Click learn more button</t>
+  </si>
+  <si>
+    <t>Will show more about MANAGING DIRECTOR</t>
+  </si>
+  <si>
+    <t>TC023</t>
+  </si>
+  <si>
+    <t>1.Hover Companies
+1.Click al-manargroup</t>
+  </si>
+  <si>
+    <t>Will show al-manargroup site</t>
+  </si>
+  <si>
+    <t>Good</t>
+  </si>
+  <si>
+    <t>TC024</t>
+  </si>
+  <si>
+    <t>Hover Companies</t>
+  </si>
+  <si>
+    <t>1.Click al-manarfoods</t>
+  </si>
+  <si>
+    <t>Will show al-manarfoods site</t>
+  </si>
+  <si>
+    <t>Wrong link</t>
+  </si>
+  <si>
+    <t>TC025</t>
+  </si>
+  <si>
+    <t>1.Click family food</t>
+  </si>
+  <si>
+    <t>Will show familyfood site</t>
+  </si>
+  <si>
+    <t>TC026</t>
+  </si>
+  <si>
+    <t>1.Click intigsol</t>
+  </si>
+  <si>
+    <t>Will show intigsol site</t>
+  </si>
+  <si>
+    <t>TC027</t>
+  </si>
+  <si>
+    <t>1.Click All Clean</t>
+  </si>
+  <si>
+    <t>Will show All Clean site</t>
+  </si>
+  <si>
+    <t>TC028</t>
+  </si>
+  <si>
+    <t>1.Click Quality and Tasty</t>
+  </si>
+  <si>
+    <t>Will show Quality and Tasty site</t>
+  </si>
+  <si>
+    <t>It's showed</t>
+  </si>
+  <si>
+    <t>TC029</t>
+  </si>
+  <si>
+    <t>1.Click Al-Manar Automobiles</t>
+  </si>
+  <si>
+    <t>Will show Al-Manar Automobiles site</t>
+  </si>
+  <si>
+    <t>It's ok</t>
+  </si>
+  <si>
+    <t>TC030</t>
+  </si>
+  <si>
+    <t>1.Click GIT-Expo</t>
+  </si>
+  <si>
+    <t>Will show GIT-Expo site</t>
+  </si>
+  <si>
+    <t>intigsol developer team</t>
+  </si>
+  <si>
+    <t>Md.Habibul Islam Safin</t>
   </si>
 </sst>
 </file>
@@ -285,7 +604,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="11">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -336,13 +655,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0"/>
+        <fgColor rgb="FF00CC00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF00CC00"/>
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -449,7 +774,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -508,9 +833,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -589,12 +911,6 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -616,8 +932,29 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1440,8 +1777,8 @@
   <dimension ref="A1:I980"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B7" sqref="B7"/>
+      <pane ySplit="6" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C5" sqref="C5:G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -1460,58 +1797,58 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="25.5" customHeight="1">
-      <c r="A1" s="53" t="s">
+      <c r="A1" s="50" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="51"/>
-      <c r="C1" s="40" t="s">
-        <v>35</v>
+      <c r="B1" s="48"/>
+      <c r="C1" s="39" t="s">
+        <v>34</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="41">
+      <c r="E1" s="40">
         <v>44563</v>
       </c>
       <c r="F1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="42"/>
-      <c r="H1" s="54" t="s">
+      <c r="G1" s="41"/>
+      <c r="H1" s="51" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="51"/>
+      <c r="I1" s="48"/>
     </row>
     <row r="2" spans="1:9" ht="30" customHeight="1">
-      <c r="A2" s="55" t="s">
+      <c r="A2" s="52" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="51"/>
+      <c r="B2" s="48"/>
       <c r="C2" s="5"/>
       <c r="D2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="42"/>
+      <c r="E2" s="41"/>
       <c r="F2" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="42"/>
+      <c r="G2" s="41"/>
       <c r="H2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="31">
+      <c r="I2" s="30">
         <f>COUNTIF(G7:G48,"PASS")</f>
-        <v>1</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="18" customHeight="1">
-      <c r="A3" s="55"/>
-      <c r="B3" s="51"/>
+      <c r="A3" s="52"/>
+      <c r="B3" s="48"/>
       <c r="C3" s="5"/>
       <c r="D3" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="43" t="s">
+      <c r="E3" s="42" t="s">
         <v>31</v>
       </c>
       <c r="F3" s="2" t="s">
@@ -1523,51 +1860,55 @@
       <c r="H3" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="I3" s="32">
+      <c r="I3" s="31">
         <f>COUNTIF(G7:G48,"Fail")</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="18" customHeight="1">
-      <c r="A4" s="55" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="51"/>
-      <c r="C4" s="5"/>
+    </row>
+    <row r="4" spans="1:9" ht="25.5" customHeight="1">
+      <c r="A4" s="52" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="48"/>
+      <c r="C4" s="60" t="s">
+        <v>146</v>
+      </c>
       <c r="D4" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="5"/>
+      <c r="E4" s="60" t="s">
+        <v>147</v>
+      </c>
       <c r="F4" s="2" t="s">
         <v>13</v>
       </c>
       <c r="G4" s="9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H4" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="I4" s="33">
+      <c r="I4" s="32">
         <f>COUNTIF(G7:G48,"Warning")</f>
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="18" customHeight="1">
-      <c r="A5" s="50" t="s">
+      <c r="A5" s="47" t="s">
         <v>15</v>
       </c>
-      <c r="B5" s="51"/>
-      <c r="C5" s="50"/>
-      <c r="D5" s="52"/>
-      <c r="E5" s="52"/>
-      <c r="F5" s="52"/>
-      <c r="G5" s="51"/>
+      <c r="B5" s="48"/>
+      <c r="C5" s="47"/>
+      <c r="D5" s="49"/>
+      <c r="E5" s="49"/>
+      <c r="F5" s="49"/>
+      <c r="G5" s="48"/>
       <c r="H5" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="I5" s="34">
+      <c r="I5" s="33">
         <f>SUM(I2:I4:I3)</f>
-        <v>3</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="18" customHeight="1">
@@ -1597,478 +1938,786 @@
       </c>
     </row>
     <row r="7" spans="1:9" ht="36.75" customHeight="1">
-      <c r="A7" s="35" t="s">
+      <c r="A7" s="34" t="s">
         <v>25</v>
       </c>
       <c r="B7" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="C7" s="15"/>
+      <c r="D7" s="35" t="s">
         <v>37</v>
       </c>
-      <c r="C7" s="15"/>
-      <c r="D7" s="36" t="s">
+      <c r="E7" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="E7" s="14" t="s">
-        <v>39</v>
-      </c>
       <c r="F7" s="16" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="G7" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="H7" s="44"/>
+        <v>7</v>
+      </c>
+      <c r="H7" s="43"/>
     </row>
     <row r="8" spans="1:9" ht="29.25" customHeight="1">
       <c r="A8" s="13" t="s">
         <v>26</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C8" s="15"/>
       <c r="D8" s="14" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E8" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" s="14" t="s">
         <v>47</v>
-      </c>
-      <c r="F8" s="14" t="s">
-        <v>46</v>
       </c>
       <c r="G8" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="H8" s="44"/>
+      <c r="H8" s="43"/>
     </row>
     <row r="9" spans="1:9" ht="25.5">
       <c r="A9" s="13" t="s">
         <v>27</v>
       </c>
       <c r="B9" s="14" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C9" s="15"/>
       <c r="D9" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="E9" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="F9" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="E9" s="14" t="s">
+      <c r="G9" s="46" t="s">
+        <v>7</v>
+      </c>
+      <c r="H9" s="43"/>
+    </row>
+    <row r="10" spans="1:9" ht="25.5" customHeight="1">
+      <c r="A10" s="34" t="s">
+        <v>28</v>
+      </c>
+      <c r="B10" s="36" t="s">
+        <v>36</v>
+      </c>
+      <c r="C10" s="45"/>
+      <c r="D10" s="35" t="s">
+        <v>48</v>
+      </c>
+      <c r="E10" s="36" t="s">
+        <v>49</v>
+      </c>
+      <c r="F10" s="35" t="s">
+        <v>50</v>
+      </c>
+      <c r="G10" s="37" t="s">
+        <v>14</v>
+      </c>
+      <c r="H10" s="43"/>
+    </row>
+    <row r="11" spans="1:9" ht="39" customHeight="1">
+      <c r="A11" s="38" t="s">
+        <v>29</v>
+      </c>
+      <c r="B11" s="36" t="s">
+        <v>36</v>
+      </c>
+      <c r="C11" s="18"/>
+      <c r="D11" s="36" t="s">
+        <v>51</v>
+      </c>
+      <c r="E11" s="36" t="s">
+        <v>52</v>
+      </c>
+      <c r="F11" s="35" t="s">
+        <v>101</v>
+      </c>
+      <c r="G11" s="53" t="s">
+        <v>10</v>
+      </c>
+      <c r="H11" s="19"/>
+    </row>
+    <row r="12" spans="1:9" ht="24.75" customHeight="1">
+      <c r="A12" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="B12" s="36" t="s">
+        <v>36</v>
+      </c>
+      <c r="C12" s="18"/>
+      <c r="D12" s="36" t="s">
+        <v>53</v>
+      </c>
+      <c r="E12" s="36" t="s">
+        <v>54</v>
+      </c>
+      <c r="F12" s="35" t="s">
+        <v>55</v>
+      </c>
+      <c r="G12" s="53" t="s">
+        <v>10</v>
+      </c>
+      <c r="H12" s="19"/>
+    </row>
+    <row r="13" spans="1:9" ht="22.5" customHeight="1">
+      <c r="A13" s="34" t="s">
+        <v>32</v>
+      </c>
+      <c r="B13" s="36" t="s">
+        <v>36</v>
+      </c>
+      <c r="C13" s="18"/>
+      <c r="D13" s="35" t="s">
+        <v>56</v>
+      </c>
+      <c r="E13" s="36" t="s">
+        <v>54</v>
+      </c>
+      <c r="F13" s="35" t="s">
+        <v>57</v>
+      </c>
+      <c r="G13" s="37" t="s">
+        <v>10</v>
+      </c>
+      <c r="H13" s="20"/>
+    </row>
+    <row r="14" spans="1:9" ht="22.5" customHeight="1">
+      <c r="A14" s="44" t="s">
+        <v>33</v>
+      </c>
+      <c r="B14" s="35" t="s">
+        <v>36</v>
+      </c>
+      <c r="C14" s="23"/>
+      <c r="D14" s="36" t="s">
+        <v>60</v>
+      </c>
+      <c r="E14" s="35" t="s">
+        <v>54</v>
+      </c>
+      <c r="F14" s="35" t="s">
+        <v>58</v>
+      </c>
+      <c r="G14" s="54" t="s">
+        <v>10</v>
+      </c>
+      <c r="H14" s="24"/>
+    </row>
+    <row r="15" spans="1:9" ht="41.25" customHeight="1">
+      <c r="A15" s="34" t="s">
+        <v>59</v>
+      </c>
+      <c r="B15" s="35" t="s">
+        <v>36</v>
+      </c>
+      <c r="C15" s="18"/>
+      <c r="D15" s="36" t="s">
+        <v>61</v>
+      </c>
+      <c r="E15" s="35" t="s">
+        <v>63</v>
+      </c>
+      <c r="F15" s="35" t="s">
+        <v>62</v>
+      </c>
+      <c r="G15" s="54" t="s">
+        <v>10</v>
+      </c>
+      <c r="H15" s="24"/>
+    </row>
+    <row r="16" spans="1:9" ht="25.5" customHeight="1">
+      <c r="A16" s="34" t="s">
+        <v>64</v>
+      </c>
+      <c r="B16" s="36" t="s">
+        <v>36</v>
+      </c>
+      <c r="C16" s="25"/>
+      <c r="D16" s="35" t="s">
+        <v>65</v>
+      </c>
+      <c r="E16" s="36" t="s">
+        <v>66</v>
+      </c>
+      <c r="F16" s="35" t="s">
+        <v>67</v>
+      </c>
+      <c r="G16" s="37" t="s">
+        <v>7</v>
+      </c>
+      <c r="H16" s="24"/>
+    </row>
+    <row r="17" spans="1:8" ht="51" customHeight="1">
+      <c r="A17" s="44" t="s">
+        <v>68</v>
+      </c>
+      <c r="B17" s="35" t="s">
+        <v>36</v>
+      </c>
+      <c r="C17" s="23"/>
+      <c r="D17" s="36" t="s">
+        <v>69</v>
+      </c>
+      <c r="E17" s="35" t="s">
+        <v>70</v>
+      </c>
+      <c r="F17" s="35" t="s">
+        <v>71</v>
+      </c>
+      <c r="G17" s="55" t="s">
+        <v>14</v>
+      </c>
+      <c r="H17" s="26"/>
+    </row>
+    <row r="18" spans="1:8" ht="21" customHeight="1">
+      <c r="A18" s="34" t="s">
+        <v>72</v>
+      </c>
+      <c r="B18" s="35" t="s">
+        <v>36</v>
+      </c>
+      <c r="C18" s="23"/>
+      <c r="D18" s="36" t="s">
+        <v>73</v>
+      </c>
+      <c r="E18" s="35" t="s">
+        <v>54</v>
+      </c>
+      <c r="F18" s="35" t="s">
+        <v>74</v>
+      </c>
+      <c r="G18" s="56" t="s">
+        <v>10</v>
+      </c>
+      <c r="H18" s="24"/>
+    </row>
+    <row r="19" spans="1:8" ht="30.75" customHeight="1">
+      <c r="A19" s="34" t="s">
+        <v>75</v>
+      </c>
+      <c r="B19" s="36" t="s">
+        <v>36</v>
+      </c>
+      <c r="C19" s="25"/>
+      <c r="D19" s="35" t="s">
+        <v>76</v>
+      </c>
+      <c r="E19" s="36" t="s">
+        <v>77</v>
+      </c>
+      <c r="F19" s="35" t="s">
+        <v>78</v>
+      </c>
+      <c r="G19" s="37" t="s">
+        <v>10</v>
+      </c>
+      <c r="H19" s="26"/>
+    </row>
+    <row r="20" spans="1:8" ht="39.75" customHeight="1">
+      <c r="A20" s="44" t="s">
+        <v>79</v>
+      </c>
+      <c r="B20" s="35" t="s">
+        <v>36</v>
+      </c>
+      <c r="C20" s="23"/>
+      <c r="D20" s="36" t="s">
+        <v>80</v>
+      </c>
+      <c r="E20" s="35" t="s">
+        <v>81</v>
+      </c>
+      <c r="F20" s="35" t="s">
+        <v>82</v>
+      </c>
+      <c r="G20" s="56" t="s">
+        <v>10</v>
+      </c>
+      <c r="H20" s="24"/>
+    </row>
+    <row r="21" spans="1:8" ht="33.75" customHeight="1">
+      <c r="A21" s="34" t="s">
+        <v>83</v>
+      </c>
+      <c r="B21" s="36" t="s">
+        <v>36</v>
+      </c>
+      <c r="C21" s="23"/>
+      <c r="D21" s="36" t="s">
+        <v>84</v>
+      </c>
+      <c r="E21" s="36" t="s">
+        <v>85</v>
+      </c>
+      <c r="F21" s="35" t="s">
+        <v>41</v>
+      </c>
+      <c r="G21" s="57" t="s">
+        <v>7</v>
+      </c>
+      <c r="H21" s="24"/>
+    </row>
+    <row r="22" spans="1:8" ht="27.75" customHeight="1">
+      <c r="A22" s="34" t="s">
+        <v>86</v>
+      </c>
+      <c r="B22" s="36" t="s">
+        <v>87</v>
+      </c>
+      <c r="C22" s="25"/>
+      <c r="D22" s="35" t="s">
+        <v>88</v>
+      </c>
+      <c r="E22" s="36" t="s">
+        <v>89</v>
+      </c>
+      <c r="F22" s="35" t="s">
+        <v>90</v>
+      </c>
+      <c r="G22" s="37" t="s">
+        <v>10</v>
+      </c>
+      <c r="H22" s="26"/>
+    </row>
+    <row r="23" spans="1:8" ht="34.5" customHeight="1">
+      <c r="A23" s="44" t="s">
+        <v>91</v>
+      </c>
+      <c r="B23" s="35" t="s">
+        <v>87</v>
+      </c>
+      <c r="C23" s="58" t="s">
+        <v>102</v>
+      </c>
+      <c r="D23" s="36" t="s">
+        <v>92</v>
+      </c>
+      <c r="E23" s="35" t="s">
+        <v>93</v>
+      </c>
+      <c r="F23" s="35" t="s">
+        <v>94</v>
+      </c>
+      <c r="G23" s="56" t="s">
+        <v>10</v>
+      </c>
+      <c r="H23" s="24"/>
+    </row>
+    <row r="24" spans="1:8" ht="69" customHeight="1">
+      <c r="A24" s="34" t="s">
+        <v>95</v>
+      </c>
+      <c r="B24" s="36" t="s">
+        <v>96</v>
+      </c>
+      <c r="C24" s="23"/>
+      <c r="D24" s="36" t="s">
+        <v>97</v>
+      </c>
+      <c r="E24" s="36" t="s">
+        <v>98</v>
+      </c>
+      <c r="F24" s="35" t="s">
+        <v>99</v>
+      </c>
+      <c r="G24" s="57" t="s">
+        <v>7</v>
+      </c>
+      <c r="H24" s="24"/>
+    </row>
+    <row r="25" spans="1:8" ht="27" customHeight="1">
+      <c r="A25" s="34" t="s">
+        <v>100</v>
+      </c>
+      <c r="B25" s="36" t="s">
         <v>42</v>
       </c>
-      <c r="F9" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="G9" s="56" t="s">
+      <c r="C25" s="27"/>
+      <c r="D25" s="35" t="s">
+        <v>103</v>
+      </c>
+      <c r="E25" s="36" t="s">
+        <v>104</v>
+      </c>
+      <c r="F25" s="35" t="s">
+        <v>105</v>
+      </c>
+      <c r="G25" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="H9" s="44"/>
-    </row>
-    <row r="10" spans="1:9" ht="25.5">
-      <c r="A10" s="35" t="s">
-        <v>28</v>
-      </c>
-      <c r="B10" s="37" t="s">
-        <v>34</v>
-      </c>
-      <c r="C10" s="46"/>
-      <c r="D10" s="36"/>
-      <c r="E10" s="37"/>
-      <c r="F10" s="36"/>
-      <c r="G10" s="38"/>
-      <c r="H10" s="44"/>
-    </row>
-    <row r="11" spans="1:9" ht="25.5">
-      <c r="A11" s="39" t="s">
-        <v>29</v>
-      </c>
-      <c r="B11" s="37" t="s">
-        <v>34</v>
-      </c>
-      <c r="C11" s="18"/>
-      <c r="D11" s="37"/>
-      <c r="E11" s="37"/>
-      <c r="F11" s="36"/>
-      <c r="G11" s="49"/>
-      <c r="H11" s="19"/>
-    </row>
-    <row r="12" spans="1:9" ht="24.75" customHeight="1">
-      <c r="A12" s="22" t="s">
-        <v>30</v>
-      </c>
-      <c r="B12" s="37"/>
-      <c r="C12" s="18"/>
-      <c r="D12" s="37"/>
-      <c r="E12" s="37"/>
-      <c r="F12" s="36"/>
-      <c r="G12" s="48"/>
-      <c r="H12" s="19"/>
-    </row>
-    <row r="13" spans="1:9" ht="25.5">
-      <c r="A13" s="35" t="s">
-        <v>32</v>
-      </c>
-      <c r="B13" s="37" t="s">
-        <v>34</v>
-      </c>
-      <c r="C13" s="18"/>
-      <c r="D13" s="36"/>
-      <c r="E13" s="37"/>
-      <c r="F13" s="36"/>
-      <c r="G13" s="38"/>
-      <c r="H13" s="21"/>
-    </row>
-    <row r="14" spans="1:9" ht="25.5">
-      <c r="A14" s="45" t="s">
-        <v>33</v>
-      </c>
-      <c r="B14" s="36" t="s">
-        <v>34</v>
-      </c>
-      <c r="C14" s="24"/>
-      <c r="D14" s="37"/>
-      <c r="E14" s="36"/>
-      <c r="F14" s="36"/>
-      <c r="G14" s="48"/>
-      <c r="H14" s="25"/>
-    </row>
-    <row r="15" spans="1:9" ht="12.75">
-      <c r="A15" s="13"/>
-      <c r="B15" s="16"/>
-      <c r="C15" s="18"/>
-      <c r="D15" s="14"/>
-      <c r="E15" s="16"/>
-      <c r="F15" s="16"/>
-      <c r="G15" s="20"/>
-      <c r="H15" s="25"/>
-    </row>
-    <row r="16" spans="1:9" ht="12.75">
-      <c r="A16" s="13"/>
-      <c r="B16" s="14"/>
-      <c r="C16" s="26"/>
-      <c r="D16" s="16"/>
-      <c r="E16" s="14"/>
-      <c r="F16" s="16"/>
-      <c r="G16" s="17"/>
-      <c r="H16" s="25"/>
-    </row>
-    <row r="17" spans="1:8" ht="12.75">
-      <c r="A17" s="23"/>
-      <c r="B17" s="16"/>
-      <c r="C17" s="24"/>
-      <c r="D17" s="14"/>
-      <c r="E17" s="16"/>
-      <c r="F17" s="16"/>
-      <c r="G17" s="47"/>
-      <c r="H17" s="27"/>
-    </row>
-    <row r="18" spans="1:8" ht="12.75">
-      <c r="A18" s="13"/>
-      <c r="B18" s="16"/>
-      <c r="C18" s="24"/>
-      <c r="D18" s="14"/>
-      <c r="E18" s="16"/>
-      <c r="F18" s="16"/>
-      <c r="G18" s="16"/>
-      <c r="H18" s="25"/>
-    </row>
-    <row r="19" spans="1:8" ht="12.75">
-      <c r="A19" s="13"/>
-      <c r="B19" s="14"/>
-      <c r="C19" s="26"/>
-      <c r="D19" s="16"/>
-      <c r="E19" s="14"/>
-      <c r="F19" s="16"/>
-      <c r="G19" s="17"/>
-      <c r="H19" s="27"/>
-    </row>
-    <row r="20" spans="1:8" ht="12.75">
-      <c r="A20" s="23"/>
-      <c r="B20" s="16"/>
-      <c r="C20" s="24"/>
-      <c r="D20" s="14"/>
-      <c r="E20" s="16"/>
-      <c r="F20" s="16"/>
-      <c r="G20" s="16"/>
-      <c r="H20" s="25"/>
-    </row>
-    <row r="21" spans="1:8" ht="12.75">
-      <c r="A21" s="13"/>
-      <c r="B21" s="14"/>
-      <c r="C21" s="24"/>
-      <c r="D21" s="14"/>
-      <c r="E21" s="14"/>
-      <c r="F21" s="16"/>
-      <c r="G21" s="16"/>
-      <c r="H21" s="25"/>
-    </row>
-    <row r="22" spans="1:8" ht="12.75">
-      <c r="A22" s="13"/>
-      <c r="B22" s="14"/>
-      <c r="C22" s="26"/>
-      <c r="D22" s="16"/>
-      <c r="E22" s="14"/>
-      <c r="F22" s="16"/>
-      <c r="G22" s="17"/>
-      <c r="H22" s="27"/>
-    </row>
-    <row r="23" spans="1:8" ht="12.75">
-      <c r="A23" s="23"/>
-      <c r="B23" s="16"/>
-      <c r="C23" s="24"/>
-      <c r="D23" s="14"/>
-      <c r="E23" s="16"/>
-      <c r="F23" s="16"/>
-      <c r="G23" s="16"/>
-      <c r="H23" s="25"/>
-    </row>
-    <row r="24" spans="1:8" ht="12.75">
-      <c r="A24" s="13"/>
-      <c r="B24" s="14"/>
-      <c r="C24" s="24"/>
-      <c r="D24" s="14"/>
-      <c r="E24" s="14"/>
-      <c r="F24" s="16"/>
-      <c r="G24" s="16"/>
-      <c r="H24" s="25"/>
-    </row>
-    <row r="25" spans="1:8" ht="12.75">
-      <c r="A25" s="13"/>
-      <c r="B25" s="14"/>
-      <c r="C25" s="28"/>
-      <c r="D25" s="16"/>
-      <c r="E25" s="14"/>
-      <c r="F25" s="16"/>
-      <c r="G25" s="17"/>
-      <c r="H25" s="27"/>
-    </row>
-    <row r="26" spans="1:8" ht="12.75">
-      <c r="A26" s="23"/>
-      <c r="B26" s="16"/>
-      <c r="C26" s="24"/>
-      <c r="D26" s="14"/>
-      <c r="E26" s="16"/>
-      <c r="F26" s="16"/>
-      <c r="G26" s="16"/>
-      <c r="H26" s="25"/>
-    </row>
-    <row r="27" spans="1:8" ht="12.75">
-      <c r="A27" s="13"/>
-      <c r="B27" s="14"/>
-      <c r="C27" s="24"/>
-      <c r="D27" s="14"/>
-      <c r="E27" s="14"/>
-      <c r="F27" s="16"/>
-      <c r="G27" s="16"/>
-      <c r="H27" s="25"/>
-    </row>
-    <row r="28" spans="1:8" ht="12.75">
-      <c r="A28" s="13"/>
-      <c r="B28" s="14"/>
-      <c r="C28" s="28"/>
-      <c r="D28" s="16"/>
-      <c r="E28" s="14"/>
-      <c r="F28" s="16"/>
-      <c r="G28" s="17"/>
-      <c r="H28" s="27"/>
-    </row>
-    <row r="29" spans="1:8" ht="12.75">
-      <c r="A29" s="23"/>
-      <c r="B29" s="16"/>
-      <c r="C29" s="24"/>
-      <c r="D29" s="14"/>
-      <c r="E29" s="16"/>
-      <c r="F29" s="16"/>
-      <c r="G29" s="16"/>
-      <c r="H29" s="25"/>
-    </row>
-    <row r="30" spans="1:8" ht="12.75">
-      <c r="A30" s="13"/>
-      <c r="B30" s="14"/>
-      <c r="C30" s="24"/>
-      <c r="D30" s="14"/>
-      <c r="E30" s="14"/>
-      <c r="F30" s="16"/>
-      <c r="G30" s="16"/>
-      <c r="H30" s="25"/>
-    </row>
-    <row r="31" spans="1:8" ht="12.75">
-      <c r="A31" s="13"/>
-      <c r="B31" s="14"/>
-      <c r="C31" s="29"/>
-      <c r="D31" s="16"/>
-      <c r="E31" s="14"/>
-      <c r="F31" s="16"/>
-      <c r="G31" s="17"/>
-      <c r="H31" s="27"/>
-    </row>
-    <row r="32" spans="1:8" ht="12.75">
-      <c r="A32" s="23"/>
-      <c r="B32" s="16"/>
-      <c r="C32" s="24"/>
-      <c r="D32" s="14"/>
-      <c r="E32" s="16"/>
-      <c r="F32" s="16"/>
-      <c r="G32" s="16"/>
-      <c r="H32" s="25"/>
+      <c r="H25" s="26"/>
+    </row>
+    <row r="26" spans="1:8" ht="50.25" customHeight="1">
+      <c r="A26" s="44" t="s">
+        <v>106</v>
+      </c>
+      <c r="B26" s="35" t="s">
+        <v>107</v>
+      </c>
+      <c r="C26" s="23"/>
+      <c r="D26" s="36" t="s">
+        <v>114</v>
+      </c>
+      <c r="E26" s="35" t="s">
+        <v>108</v>
+      </c>
+      <c r="F26" s="35" t="s">
+        <v>109</v>
+      </c>
+      <c r="G26" s="59" t="s">
+        <v>14</v>
+      </c>
+      <c r="H26" s="24"/>
+    </row>
+    <row r="27" spans="1:8" ht="36.75" customHeight="1">
+      <c r="A27" s="34" t="s">
+        <v>110</v>
+      </c>
+      <c r="B27" s="36" t="s">
+        <v>107</v>
+      </c>
+      <c r="C27" s="23"/>
+      <c r="D27" s="36" t="s">
+        <v>111</v>
+      </c>
+      <c r="E27" s="36" t="s">
+        <v>108</v>
+      </c>
+      <c r="F27" s="35" t="s">
+        <v>112</v>
+      </c>
+      <c r="G27" s="57" t="s">
+        <v>7</v>
+      </c>
+      <c r="H27" s="24"/>
+    </row>
+    <row r="28" spans="1:8" ht="28.5" customHeight="1">
+      <c r="A28" s="34" t="s">
+        <v>113</v>
+      </c>
+      <c r="B28" s="36" t="s">
+        <v>107</v>
+      </c>
+      <c r="C28" s="27"/>
+      <c r="D28" s="35" t="s">
+        <v>115</v>
+      </c>
+      <c r="E28" s="36" t="s">
+        <v>116</v>
+      </c>
+      <c r="F28" s="35" t="s">
+        <v>105</v>
+      </c>
+      <c r="G28" s="37" t="s">
+        <v>7</v>
+      </c>
+      <c r="H28" s="26"/>
+    </row>
+    <row r="29" spans="1:8" ht="29.25" customHeight="1">
+      <c r="A29" s="44" t="s">
+        <v>117</v>
+      </c>
+      <c r="B29" s="35" t="s">
+        <v>42</v>
+      </c>
+      <c r="C29" s="23"/>
+      <c r="D29" s="36" t="s">
+        <v>118</v>
+      </c>
+      <c r="E29" s="35" t="s">
+        <v>119</v>
+      </c>
+      <c r="F29" s="35" t="s">
+        <v>120</v>
+      </c>
+      <c r="G29" s="57" t="s">
+        <v>7</v>
+      </c>
+      <c r="H29" s="24"/>
+    </row>
+    <row r="30" spans="1:8" ht="22.5" customHeight="1">
+      <c r="A30" s="34" t="s">
+        <v>121</v>
+      </c>
+      <c r="B30" s="36" t="s">
+        <v>122</v>
+      </c>
+      <c r="C30" s="23"/>
+      <c r="D30" s="36" t="s">
+        <v>123</v>
+      </c>
+      <c r="E30" s="36" t="s">
+        <v>124</v>
+      </c>
+      <c r="F30" s="35" t="s">
+        <v>125</v>
+      </c>
+      <c r="G30" s="59" t="s">
+        <v>14</v>
+      </c>
+      <c r="H30" s="24"/>
+    </row>
+    <row r="31" spans="1:8" ht="18.75" customHeight="1">
+      <c r="A31" s="34" t="s">
+        <v>126</v>
+      </c>
+      <c r="B31" s="36" t="s">
+        <v>122</v>
+      </c>
+      <c r="C31" s="28"/>
+      <c r="D31" s="35" t="s">
+        <v>127</v>
+      </c>
+      <c r="E31" s="36" t="s">
+        <v>128</v>
+      </c>
+      <c r="F31" s="35" t="s">
+        <v>45</v>
+      </c>
+      <c r="G31" s="37" t="s">
+        <v>7</v>
+      </c>
+      <c r="H31" s="26"/>
+    </row>
+    <row r="32" spans="1:8" ht="17.25" customHeight="1">
+      <c r="A32" s="44" t="s">
+        <v>129</v>
+      </c>
+      <c r="B32" s="35" t="s">
+        <v>122</v>
+      </c>
+      <c r="C32" s="23"/>
+      <c r="D32" s="36" t="s">
+        <v>130</v>
+      </c>
+      <c r="E32" s="35" t="s">
+        <v>131</v>
+      </c>
+      <c r="F32" s="35" t="s">
+        <v>45</v>
+      </c>
+      <c r="G32" s="57" t="s">
+        <v>7</v>
+      </c>
+      <c r="H32" s="24"/>
     </row>
     <row r="33" spans="1:8" ht="12.75">
-      <c r="A33" s="13"/>
-      <c r="B33" s="14"/>
-      <c r="C33" s="24"/>
-      <c r="D33" s="14"/>
-      <c r="E33" s="14"/>
-      <c r="F33" s="16"/>
-      <c r="G33" s="16"/>
-      <c r="H33" s="25"/>
-    </row>
-    <row r="34" spans="1:8" ht="12.75">
-      <c r="A34" s="13"/>
-      <c r="B34" s="14"/>
-      <c r="C34" s="29"/>
-      <c r="D34" s="16"/>
-      <c r="E34" s="14"/>
-      <c r="F34" s="16"/>
-      <c r="G34" s="17"/>
-      <c r="H34" s="27"/>
+      <c r="A33" s="34" t="s">
+        <v>132</v>
+      </c>
+      <c r="B33" s="36" t="s">
+        <v>122</v>
+      </c>
+      <c r="C33" s="23"/>
+      <c r="D33" s="36" t="s">
+        <v>133</v>
+      </c>
+      <c r="E33" s="36" t="s">
+        <v>134</v>
+      </c>
+      <c r="F33" s="35" t="s">
+        <v>45</v>
+      </c>
+      <c r="G33" s="57" t="s">
+        <v>7</v>
+      </c>
+      <c r="H33" s="24"/>
+    </row>
+    <row r="34" spans="1:8" ht="24" customHeight="1">
+      <c r="A34" s="34" t="s">
+        <v>135</v>
+      </c>
+      <c r="B34" s="36" t="s">
+        <v>122</v>
+      </c>
+      <c r="C34" s="28"/>
+      <c r="D34" s="35" t="s">
+        <v>136</v>
+      </c>
+      <c r="E34" s="36" t="s">
+        <v>137</v>
+      </c>
+      <c r="F34" s="35" t="s">
+        <v>138</v>
+      </c>
+      <c r="G34" s="37" t="s">
+        <v>7</v>
+      </c>
+      <c r="H34" s="26"/>
     </row>
     <row r="35" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A35" s="23"/>
-      <c r="B35" s="16"/>
-      <c r="C35" s="24"/>
-      <c r="D35" s="14"/>
-      <c r="E35" s="16"/>
-      <c r="F35" s="16"/>
-      <c r="G35" s="16"/>
-      <c r="H35" s="25"/>
-    </row>
-    <row r="36" spans="1:8" ht="30.75" customHeight="1">
-      <c r="A36" s="13"/>
-      <c r="B36" s="14"/>
-      <c r="C36" s="24"/>
-      <c r="D36" s="14"/>
-      <c r="E36" s="14"/>
-      <c r="F36" s="16"/>
-      <c r="G36" s="16"/>
-      <c r="H36" s="25"/>
+      <c r="A35" s="44" t="s">
+        <v>139</v>
+      </c>
+      <c r="B35" s="35" t="s">
+        <v>122</v>
+      </c>
+      <c r="C35" s="23"/>
+      <c r="D35" s="36" t="s">
+        <v>140</v>
+      </c>
+      <c r="E35" s="35" t="s">
+        <v>141</v>
+      </c>
+      <c r="F35" s="35" t="s">
+        <v>142</v>
+      </c>
+      <c r="G35" s="57" t="s">
+        <v>7</v>
+      </c>
+      <c r="H35" s="24"/>
+    </row>
+    <row r="36" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A36" s="34" t="s">
+        <v>143</v>
+      </c>
+      <c r="B36" s="36" t="s">
+        <v>122</v>
+      </c>
+      <c r="C36" s="23"/>
+      <c r="D36" s="36" t="s">
+        <v>144</v>
+      </c>
+      <c r="E36" s="36" t="s">
+        <v>145</v>
+      </c>
+      <c r="F36" s="35" t="s">
+        <v>105</v>
+      </c>
+      <c r="G36" s="57" t="s">
+        <v>7</v>
+      </c>
+      <c r="H36" s="24"/>
     </row>
     <row r="37" spans="1:8" ht="15.75" customHeight="1">
       <c r="A37" s="13"/>
       <c r="B37" s="14"/>
-      <c r="C37" s="29"/>
+      <c r="C37" s="28"/>
       <c r="D37" s="16"/>
       <c r="E37" s="14"/>
       <c r="F37" s="16"/>
       <c r="G37" s="17"/>
-      <c r="H37" s="27"/>
+      <c r="H37" s="26"/>
     </row>
     <row r="38" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A38" s="23"/>
+      <c r="A38" s="22"/>
       <c r="B38" s="16"/>
-      <c r="C38" s="24"/>
+      <c r="C38" s="23"/>
       <c r="D38" s="14"/>
       <c r="E38" s="16"/>
       <c r="F38" s="16"/>
       <c r="G38" s="16"/>
-      <c r="H38" s="25"/>
+      <c r="H38" s="24"/>
     </row>
     <row r="39" spans="1:8" ht="30.75" customHeight="1">
       <c r="A39" s="13"/>
       <c r="B39" s="14"/>
-      <c r="C39" s="24"/>
+      <c r="C39" s="23"/>
       <c r="D39" s="14"/>
       <c r="E39" s="14"/>
       <c r="F39" s="16"/>
       <c r="G39" s="16"/>
-      <c r="H39" s="25"/>
+      <c r="H39" s="24"/>
     </row>
     <row r="40" spans="1:8" ht="15.75" customHeight="1">
       <c r="A40" s="13"/>
       <c r="B40" s="14"/>
-      <c r="C40" s="28"/>
+      <c r="C40" s="27"/>
       <c r="D40" s="16"/>
       <c r="E40" s="14"/>
       <c r="F40" s="16"/>
       <c r="G40" s="17"/>
-      <c r="H40" s="27"/>
+      <c r="H40" s="26"/>
     </row>
     <row r="41" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A41" s="23"/>
+      <c r="A41" s="22"/>
       <c r="B41" s="16"/>
-      <c r="C41" s="30"/>
+      <c r="C41" s="29"/>
       <c r="D41" s="14"/>
       <c r="E41" s="16"/>
       <c r="F41" s="16"/>
       <c r="G41" s="16"/>
-      <c r="H41" s="25"/>
+      <c r="H41" s="24"/>
     </row>
     <row r="42" spans="1:8" ht="31.5" customHeight="1">
       <c r="A42" s="13"/>
       <c r="B42" s="14"/>
-      <c r="C42" s="24"/>
+      <c r="C42" s="23"/>
       <c r="D42" s="14"/>
       <c r="E42" s="14"/>
       <c r="F42" s="16"/>
       <c r="G42" s="16"/>
-      <c r="H42" s="25"/>
+      <c r="H42" s="24"/>
     </row>
     <row r="43" spans="1:8" ht="15.75" customHeight="1">
       <c r="A43" s="13"/>
       <c r="B43" s="14"/>
-      <c r="C43" s="29"/>
+      <c r="C43" s="28"/>
       <c r="D43" s="16"/>
       <c r="E43" s="14"/>
       <c r="F43" s="16"/>
       <c r="G43" s="17"/>
-      <c r="H43" s="27"/>
+      <c r="H43" s="26"/>
     </row>
     <row r="44" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A44" s="23"/>
+      <c r="A44" s="22"/>
       <c r="B44" s="16"/>
-      <c r="C44" s="24"/>
+      <c r="C44" s="23"/>
       <c r="D44" s="14"/>
       <c r="E44" s="16"/>
       <c r="F44" s="16"/>
       <c r="G44" s="16"/>
-      <c r="H44" s="25"/>
+      <c r="H44" s="24"/>
     </row>
     <row r="45" spans="1:8" ht="37.5" customHeight="1">
       <c r="A45" s="13"/>
       <c r="B45" s="14"/>
-      <c r="C45" s="24"/>
+      <c r="C45" s="23"/>
       <c r="D45" s="14"/>
       <c r="E45" s="14"/>
       <c r="F45" s="16"/>
       <c r="G45" s="16"/>
-      <c r="H45" s="25"/>
+      <c r="H45" s="24"/>
     </row>
     <row r="46" spans="1:8" ht="15.75" customHeight="1">
       <c r="A46" s="13"/>
       <c r="B46" s="14"/>
-      <c r="C46" s="29"/>
+      <c r="C46" s="28"/>
       <c r="D46" s="16"/>
       <c r="E46" s="14"/>
       <c r="F46" s="16"/>
       <c r="G46" s="17"/>
-      <c r="H46" s="27"/>
+      <c r="H46" s="26"/>
     </row>
     <row r="47" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A47" s="23"/>
+      <c r="A47" s="22"/>
       <c r="B47" s="16"/>
-      <c r="C47" s="24"/>
+      <c r="C47" s="23"/>
       <c r="D47" s="14"/>
       <c r="E47" s="16"/>
       <c r="F47" s="16"/>
       <c r="G47" s="16"/>
-      <c r="H47" s="25"/>
+      <c r="H47" s="24"/>
     </row>
     <row r="48" spans="1:8" ht="38.25" customHeight="1">
       <c r="A48" s="13"/>
       <c r="B48" s="14"/>
-      <c r="C48" s="24"/>
+      <c r="C48" s="23"/>
       <c r="D48" s="14"/>
       <c r="E48" s="14"/>
       <c r="F48" s="16"/>
       <c r="G48" s="16"/>
-      <c r="H48" s="25"/>
+      <c r="H48" s="24"/>
     </row>
     <row r="49" ht="30.75" customHeight="1"/>
     <row r="50" ht="15.75" customHeight="1"/>

--- a/tmacbd/tmacbd.xlsx
+++ b/tmacbd/tmacbd.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nafees\Desktop\office\tmacbd\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62917066-054F-4E9E-BF15-F9DD9351A506}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{362B5AFA-DB4D-4324-90AD-18B7179DB7C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="164">
   <si>
     <t>Product Name</t>
   </si>
@@ -209,9 +209,6 @@
   </si>
   <si>
     <t>1.Go to Product &amp; Character Design card</t>
-  </si>
-  <si>
-    <t>One text is not ok " characterâ€™s "</t>
   </si>
   <si>
     <t>One text is not ok " thereâ€™s "</t>
@@ -278,9 +275,6 @@
   </si>
   <si>
     <t>Will show some demo of our work</t>
-  </si>
-  <si>
-    <t>Nothing to show</t>
   </si>
   <si>
     <t>TC014</t>
@@ -501,6 +495,60 @@
   </si>
   <si>
     <t>Md.Habibul Islam Safin</t>
+  </si>
+  <si>
+    <t>TC031</t>
+  </si>
+  <si>
+    <t>1.Click Our team</t>
+  </si>
+  <si>
+    <t>Our team site should open</t>
+  </si>
+  <si>
+    <t>It's opened</t>
+  </si>
+  <si>
+    <t>TC032</t>
+  </si>
+  <si>
+    <t>1.Click Gallery</t>
+  </si>
+  <si>
+    <t>Gallery will open</t>
+  </si>
+  <si>
+    <t>TC033</t>
+  </si>
+  <si>
+    <t>1.Click Contact Us</t>
+  </si>
+  <si>
+    <t>Contact Us page should open</t>
+  </si>
+  <si>
+    <t>It's doing well</t>
+  </si>
+  <si>
+    <t>TC034</t>
+  </si>
+  <si>
+    <t>Contact Us form section</t>
+  </si>
+  <si>
+    <t>1.Fillup Contact Us form</t>
+  </si>
+  <si>
+    <t>Successfully send data</t>
+  </si>
+  <si>
+    <t>ok</t>
+  </si>
+  <si>
+    <t>One text is not ok "characterâ€™s "</t>
+  </si>
+  <si>
+    <t>Comes occasionally after reload</t>
   </si>
 </sst>
 </file>
@@ -774,7 +822,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -914,6 +962,33 @@
     <xf numFmtId="0" fontId="12" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -930,30 +1005,6 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1777,30 +1828,30 @@
   <dimension ref="A1:I980"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C5" sqref="C5:G5"/>
+      <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="21.85546875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="15.5703125" style="1" customWidth="1"/>
     <col min="2" max="2" width="18.140625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="13.28515625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="34.85546875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="37.85546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.28515625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="32.5703125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="35.5703125" style="1" customWidth="1"/>
     <col min="6" max="6" width="28.28515625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="30" style="1" customWidth="1"/>
-    <col min="8" max="8" width="13.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="25" style="1" customWidth="1"/>
+    <col min="7" max="7" width="15.85546875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="9.5703125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="14" style="1" customWidth="1"/>
     <col min="10" max="10" width="17.28515625" style="1" customWidth="1"/>
     <col min="11" max="16384" width="14.42578125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="25.5" customHeight="1">
-      <c r="A1" s="50" t="s">
+      <c r="A1" s="59" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="48"/>
+      <c r="B1" s="57"/>
       <c r="C1" s="39" t="s">
         <v>34</v>
       </c>
@@ -1808,27 +1859,29 @@
         <v>1</v>
       </c>
       <c r="E1" s="40">
-        <v>44563</v>
+        <v>44564</v>
       </c>
       <c r="F1" s="4" t="s">
         <v>2</v>
       </c>
       <c r="G1" s="41"/>
-      <c r="H1" s="51" t="s">
+      <c r="H1" s="60" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="48"/>
+      <c r="I1" s="57"/>
     </row>
     <row r="2" spans="1:9" ht="30" customHeight="1">
-      <c r="A2" s="52" t="s">
+      <c r="A2" s="61" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="48"/>
+      <c r="B2" s="57"/>
       <c r="C2" s="5"/>
       <c r="D2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="41"/>
+      <c r="E2" s="41">
+        <v>44565</v>
+      </c>
       <c r="F2" s="6" t="s">
         <v>6</v>
       </c>
@@ -1838,12 +1891,12 @@
       </c>
       <c r="I2" s="30">
         <f>COUNTIF(G7:G48,"PASS")</f>
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="18" customHeight="1">
-      <c r="A3" s="52"/>
-      <c r="B3" s="48"/>
+      <c r="A3" s="61"/>
+      <c r="B3" s="57"/>
       <c r="C3" s="5"/>
       <c r="D3" s="7" t="s">
         <v>8</v>
@@ -1865,19 +1918,19 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="25.5" customHeight="1">
-      <c r="A4" s="52" t="s">
+    <row r="4" spans="1:9" ht="38.25" customHeight="1">
+      <c r="A4" s="61" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="48"/>
-      <c r="C4" s="60" t="s">
-        <v>146</v>
+      <c r="B4" s="57"/>
+      <c r="C4" s="54" t="s">
+        <v>144</v>
       </c>
       <c r="D4" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="60" t="s">
-        <v>147</v>
+      <c r="E4" s="54" t="s">
+        <v>145</v>
       </c>
       <c r="F4" s="2" t="s">
         <v>13</v>
@@ -1894,21 +1947,21 @@
       </c>
     </row>
     <row r="5" spans="1:9" ht="18" customHeight="1">
-      <c r="A5" s="47" t="s">
+      <c r="A5" s="56" t="s">
         <v>15</v>
       </c>
-      <c r="B5" s="48"/>
-      <c r="C5" s="47"/>
-      <c r="D5" s="49"/>
-      <c r="E5" s="49"/>
-      <c r="F5" s="49"/>
-      <c r="G5" s="48"/>
+      <c r="B5" s="57"/>
+      <c r="C5" s="56"/>
+      <c r="D5" s="58"/>
+      <c r="E5" s="58"/>
+      <c r="F5" s="58"/>
+      <c r="G5" s="57"/>
       <c r="H5" s="10" t="s">
         <v>16</v>
       </c>
       <c r="I5" s="33">
         <f>SUM(I2:I4:I3)</f>
-        <v>30</v>
+        <v>34</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="18" customHeight="1">
@@ -1937,7 +1990,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="36.75" customHeight="1">
+    <row r="7" spans="1:9" ht="23.25" customHeight="1">
       <c r="A7" s="34" t="s">
         <v>25</v>
       </c>
@@ -1959,7 +2012,7 @@
       </c>
       <c r="H7" s="43"/>
     </row>
-    <row r="8" spans="1:9" ht="29.25" customHeight="1">
+    <row r="8" spans="1:9" ht="24" customHeight="1">
       <c r="A8" s="13" t="s">
         <v>26</v>
       </c>
@@ -2003,7 +2056,7 @@
       </c>
       <c r="H9" s="43"/>
     </row>
-    <row r="10" spans="1:9" ht="25.5" customHeight="1">
+    <row r="10" spans="1:9" ht="23.25" customHeight="1">
       <c r="A10" s="34" t="s">
         <v>28</v>
       </c>
@@ -2025,7 +2078,7 @@
       </c>
       <c r="H10" s="43"/>
     </row>
-    <row r="11" spans="1:9" ht="39" customHeight="1">
+    <row r="11" spans="1:9" ht="37.5" customHeight="1">
       <c r="A11" s="38" t="s">
         <v>29</v>
       </c>
@@ -2040,9 +2093,9 @@
         <v>52</v>
       </c>
       <c r="F11" s="35" t="s">
-        <v>101</v>
-      </c>
-      <c r="G11" s="53" t="s">
+        <v>99</v>
+      </c>
+      <c r="G11" s="47" t="s">
         <v>10</v>
       </c>
       <c r="H11" s="19"/>
@@ -2064,12 +2117,12 @@
       <c r="F12" s="35" t="s">
         <v>55</v>
       </c>
-      <c r="G12" s="53" t="s">
+      <c r="G12" s="47" t="s">
         <v>10</v>
       </c>
       <c r="H12" s="19"/>
     </row>
-    <row r="13" spans="1:9" ht="22.5" customHeight="1">
+    <row r="13" spans="1:9" ht="15.75" customHeight="1">
       <c r="A13" s="34" t="s">
         <v>32</v>
       </c>
@@ -2084,14 +2137,14 @@
         <v>54</v>
       </c>
       <c r="F13" s="35" t="s">
-        <v>57</v>
+        <v>162</v>
       </c>
       <c r="G13" s="37" t="s">
         <v>10</v>
       </c>
       <c r="H13" s="20"/>
     </row>
-    <row r="14" spans="1:9" ht="22.5" customHeight="1">
+    <row r="14" spans="1:9" ht="15" customHeight="1">
       <c r="A14" s="44" t="s">
         <v>33</v>
       </c>
@@ -2100,57 +2153,57 @@
       </c>
       <c r="C14" s="23"/>
       <c r="D14" s="36" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E14" s="35" t="s">
         <v>54</v>
       </c>
       <c r="F14" s="35" t="s">
+        <v>57</v>
+      </c>
+      <c r="G14" s="48" t="s">
+        <v>10</v>
+      </c>
+      <c r="H14" s="24"/>
+    </row>
+    <row r="15" spans="1:9" ht="35.25" customHeight="1">
+      <c r="A15" s="34" t="s">
         <v>58</v>
-      </c>
-      <c r="G14" s="54" t="s">
-        <v>10</v>
-      </c>
-      <c r="H14" s="24"/>
-    </row>
-    <row r="15" spans="1:9" ht="41.25" customHeight="1">
-      <c r="A15" s="34" t="s">
-        <v>59</v>
       </c>
       <c r="B15" s="35" t="s">
         <v>36</v>
       </c>
       <c r="C15" s="18"/>
       <c r="D15" s="36" t="s">
+        <v>60</v>
+      </c>
+      <c r="E15" s="35" t="s">
+        <v>62</v>
+      </c>
+      <c r="F15" s="35" t="s">
         <v>61</v>
       </c>
-      <c r="E15" s="35" t="s">
+      <c r="G15" s="48" t="s">
+        <v>10</v>
+      </c>
+      <c r="H15" s="24"/>
+    </row>
+    <row r="16" spans="1:9" ht="23.25" customHeight="1">
+      <c r="A16" s="34" t="s">
         <v>63</v>
-      </c>
-      <c r="F15" s="35" t="s">
-        <v>62</v>
-      </c>
-      <c r="G15" s="54" t="s">
-        <v>10</v>
-      </c>
-      <c r="H15" s="24"/>
-    </row>
-    <row r="16" spans="1:9" ht="25.5" customHeight="1">
-      <c r="A16" s="34" t="s">
-        <v>64</v>
       </c>
       <c r="B16" s="36" t="s">
         <v>36</v>
       </c>
       <c r="C16" s="25"/>
       <c r="D16" s="35" t="s">
+        <v>64</v>
+      </c>
+      <c r="E16" s="36" t="s">
         <v>65</v>
       </c>
-      <c r="E16" s="36" t="s">
+      <c r="F16" s="35" t="s">
         <v>66</v>
-      </c>
-      <c r="F16" s="35" t="s">
-        <v>67</v>
       </c>
       <c r="G16" s="37" t="s">
         <v>7</v>
@@ -2159,327 +2212,327 @@
     </row>
     <row r="17" spans="1:8" ht="51" customHeight="1">
       <c r="A17" s="44" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B17" s="35" t="s">
         <v>36</v>
       </c>
       <c r="C17" s="23"/>
       <c r="D17" s="36" t="s">
+        <v>68</v>
+      </c>
+      <c r="E17" s="35" t="s">
         <v>69</v>
       </c>
-      <c r="E17" s="35" t="s">
+      <c r="F17" s="35" t="s">
         <v>70</v>
       </c>
-      <c r="F17" s="35" t="s">
+      <c r="G17" s="49" t="s">
+        <v>14</v>
+      </c>
+      <c r="H17" s="26"/>
+    </row>
+    <row r="18" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A18" s="34" t="s">
         <v>71</v>
-      </c>
-      <c r="G17" s="55" t="s">
-        <v>14</v>
-      </c>
-      <c r="H17" s="26"/>
-    </row>
-    <row r="18" spans="1:8" ht="21" customHeight="1">
-      <c r="A18" s="34" t="s">
-        <v>72</v>
       </c>
       <c r="B18" s="35" t="s">
         <v>36</v>
       </c>
       <c r="C18" s="23"/>
       <c r="D18" s="36" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E18" s="35" t="s">
         <v>54</v>
       </c>
       <c r="F18" s="35" t="s">
+        <v>73</v>
+      </c>
+      <c r="G18" s="50" t="s">
+        <v>10</v>
+      </c>
+      <c r="H18" s="24"/>
+    </row>
+    <row r="19" spans="1:8" ht="19.5" customHeight="1">
+      <c r="A19" s="34" t="s">
         <v>74</v>
-      </c>
-      <c r="G18" s="56" t="s">
-        <v>10</v>
-      </c>
-      <c r="H18" s="24"/>
-    </row>
-    <row r="19" spans="1:8" ht="30.75" customHeight="1">
-      <c r="A19" s="34" t="s">
-        <v>75</v>
       </c>
       <c r="B19" s="36" t="s">
         <v>36</v>
       </c>
       <c r="C19" s="25"/>
       <c r="D19" s="35" t="s">
+        <v>75</v>
+      </c>
+      <c r="E19" s="36" t="s">
         <v>76</v>
       </c>
-      <c r="E19" s="36" t="s">
-        <v>77</v>
-      </c>
       <c r="F19" s="35" t="s">
-        <v>78</v>
+        <v>163</v>
       </c>
       <c r="G19" s="37" t="s">
         <v>10</v>
       </c>
       <c r="H19" s="26"/>
     </row>
-    <row r="20" spans="1:8" ht="39.75" customHeight="1">
+    <row r="20" spans="1:8" ht="37.5" customHeight="1">
       <c r="A20" s="44" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B20" s="35" t="s">
         <v>36</v>
       </c>
       <c r="C20" s="23"/>
       <c r="D20" s="36" t="s">
+        <v>78</v>
+      </c>
+      <c r="E20" s="35" t="s">
+        <v>79</v>
+      </c>
+      <c r="F20" s="35" t="s">
         <v>80</v>
       </c>
-      <c r="E20" s="35" t="s">
+      <c r="G20" s="50" t="s">
+        <v>10</v>
+      </c>
+      <c r="H20" s="24"/>
+    </row>
+    <row r="21" spans="1:8" ht="26.25" customHeight="1">
+      <c r="A21" s="34" t="s">
         <v>81</v>
-      </c>
-      <c r="F20" s="35" t="s">
-        <v>82</v>
-      </c>
-      <c r="G20" s="56" t="s">
-        <v>10</v>
-      </c>
-      <c r="H20" s="24"/>
-    </row>
-    <row r="21" spans="1:8" ht="33.75" customHeight="1">
-      <c r="A21" s="34" t="s">
-        <v>83</v>
       </c>
       <c r="B21" s="36" t="s">
         <v>36</v>
       </c>
       <c r="C21" s="23"/>
       <c r="D21" s="36" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E21" s="36" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="F21" s="35" t="s">
         <v>41</v>
       </c>
-      <c r="G21" s="57" t="s">
+      <c r="G21" s="51" t="s">
         <v>7</v>
       </c>
       <c r="H21" s="24"/>
     </row>
-    <row r="22" spans="1:8" ht="27.75" customHeight="1">
+    <row r="22" spans="1:8" ht="24" customHeight="1">
       <c r="A22" s="34" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B22" s="36" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C22" s="25"/>
       <c r="D22" s="35" t="s">
+        <v>86</v>
+      </c>
+      <c r="E22" s="36" t="s">
+        <v>87</v>
+      </c>
+      <c r="F22" s="35" t="s">
         <v>88</v>
-      </c>
-      <c r="E22" s="36" t="s">
-        <v>89</v>
-      </c>
-      <c r="F22" s="35" t="s">
-        <v>90</v>
       </c>
       <c r="G22" s="37" t="s">
         <v>10</v>
       </c>
       <c r="H22" s="26"/>
     </row>
-    <row r="23" spans="1:8" ht="34.5" customHeight="1">
+    <row r="23" spans="1:8" ht="26.25" customHeight="1">
       <c r="A23" s="44" t="s">
+        <v>89</v>
+      </c>
+      <c r="B23" s="35" t="s">
+        <v>85</v>
+      </c>
+      <c r="C23" s="52" t="s">
+        <v>100</v>
+      </c>
+      <c r="D23" s="36" t="s">
+        <v>90</v>
+      </c>
+      <c r="E23" s="35" t="s">
         <v>91</v>
       </c>
-      <c r="B23" s="35" t="s">
-        <v>87</v>
-      </c>
-      <c r="C23" s="58" t="s">
-        <v>102</v>
-      </c>
-      <c r="D23" s="36" t="s">
+      <c r="F23" s="35" t="s">
         <v>92</v>
       </c>
-      <c r="E23" s="35" t="s">
+      <c r="G23" s="50" t="s">
+        <v>10</v>
+      </c>
+      <c r="H23" s="24"/>
+    </row>
+    <row r="24" spans="1:8" ht="62.25" customHeight="1">
+      <c r="A24" s="34" t="s">
         <v>93</v>
       </c>
-      <c r="F23" s="35" t="s">
+      <c r="B24" s="36" t="s">
         <v>94</v>
-      </c>
-      <c r="G23" s="56" t="s">
-        <v>10</v>
-      </c>
-      <c r="H23" s="24"/>
-    </row>
-    <row r="24" spans="1:8" ht="69" customHeight="1">
-      <c r="A24" s="34" t="s">
-        <v>95</v>
-      </c>
-      <c r="B24" s="36" t="s">
-        <v>96</v>
       </c>
       <c r="C24" s="23"/>
       <c r="D24" s="36" t="s">
+        <v>95</v>
+      </c>
+      <c r="E24" s="36" t="s">
+        <v>96</v>
+      </c>
+      <c r="F24" s="35" t="s">
         <v>97</v>
       </c>
-      <c r="E24" s="36" t="s">
+      <c r="G24" s="51" t="s">
+        <v>7</v>
+      </c>
+      <c r="H24" s="24"/>
+    </row>
+    <row r="25" spans="1:8" ht="14.25" customHeight="1">
+      <c r="A25" s="34" t="s">
         <v>98</v>
-      </c>
-      <c r="F24" s="35" t="s">
-        <v>99</v>
-      </c>
-      <c r="G24" s="57" t="s">
-        <v>7</v>
-      </c>
-      <c r="H24" s="24"/>
-    </row>
-    <row r="25" spans="1:8" ht="27" customHeight="1">
-      <c r="A25" s="34" t="s">
-        <v>100</v>
       </c>
       <c r="B25" s="36" t="s">
         <v>42</v>
       </c>
       <c r="C25" s="27"/>
       <c r="D25" s="35" t="s">
+        <v>101</v>
+      </c>
+      <c r="E25" s="36" t="s">
+        <v>102</v>
+      </c>
+      <c r="F25" s="35" t="s">
         <v>103</v>
-      </c>
-      <c r="E25" s="36" t="s">
-        <v>104</v>
-      </c>
-      <c r="F25" s="35" t="s">
-        <v>105</v>
       </c>
       <c r="G25" s="37" t="s">
         <v>7</v>
       </c>
       <c r="H25" s="26"/>
     </row>
-    <row r="26" spans="1:8" ht="50.25" customHeight="1">
+    <row r="26" spans="1:8" ht="48" customHeight="1">
       <c r="A26" s="44" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B26" s="35" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C26" s="23"/>
       <c r="D26" s="36" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E26" s="35" t="s">
+        <v>106</v>
+      </c>
+      <c r="F26" s="35" t="s">
+        <v>107</v>
+      </c>
+      <c r="G26" s="53" t="s">
+        <v>14</v>
+      </c>
+      <c r="H26" s="24"/>
+    </row>
+    <row r="27" spans="1:8" ht="11.25" customHeight="1">
+      <c r="A27" s="34" t="s">
         <v>108</v>
       </c>
-      <c r="F26" s="35" t="s">
-        <v>109</v>
-      </c>
-      <c r="G26" s="59" t="s">
-        <v>14</v>
-      </c>
-      <c r="H26" s="24"/>
-    </row>
-    <row r="27" spans="1:8" ht="36.75" customHeight="1">
-      <c r="A27" s="34" t="s">
-        <v>110</v>
-      </c>
       <c r="B27" s="36" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C27" s="23"/>
       <c r="D27" s="36" t="s">
+        <v>109</v>
+      </c>
+      <c r="E27" s="36" t="s">
+        <v>106</v>
+      </c>
+      <c r="F27" s="35" t="s">
+        <v>110</v>
+      </c>
+      <c r="G27" s="51" t="s">
+        <v>7</v>
+      </c>
+      <c r="H27" s="24"/>
+    </row>
+    <row r="28" spans="1:8" ht="11.25" customHeight="1">
+      <c r="A28" s="34" t="s">
         <v>111</v>
       </c>
-      <c r="E27" s="36" t="s">
-        <v>108</v>
-      </c>
-      <c r="F27" s="35" t="s">
-        <v>112</v>
-      </c>
-      <c r="G27" s="57" t="s">
-        <v>7</v>
-      </c>
-      <c r="H27" s="24"/>
-    </row>
-    <row r="28" spans="1:8" ht="28.5" customHeight="1">
-      <c r="A28" s="34" t="s">
-        <v>113</v>
-      </c>
       <c r="B28" s="36" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C28" s="27"/>
       <c r="D28" s="35" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="E28" s="36" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="F28" s="35" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="G28" s="37" t="s">
         <v>7</v>
       </c>
       <c r="H28" s="26"/>
     </row>
-    <row r="29" spans="1:8" ht="29.25" customHeight="1">
+    <row r="29" spans="1:8" ht="23.25" customHeight="1">
       <c r="A29" s="44" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B29" s="35" t="s">
         <v>42</v>
       </c>
       <c r="C29" s="23"/>
       <c r="D29" s="36" t="s">
+        <v>116</v>
+      </c>
+      <c r="E29" s="35" t="s">
+        <v>117</v>
+      </c>
+      <c r="F29" s="35" t="s">
         <v>118</v>
       </c>
-      <c r="E29" s="35" t="s">
+      <c r="G29" s="51" t="s">
+        <v>7</v>
+      </c>
+      <c r="H29" s="24"/>
+    </row>
+    <row r="30" spans="1:8" ht="10.5" customHeight="1">
+      <c r="A30" s="34" t="s">
         <v>119</v>
       </c>
-      <c r="F29" s="35" t="s">
+      <c r="B30" s="36" t="s">
         <v>120</v>
-      </c>
-      <c r="G29" s="57" t="s">
-        <v>7</v>
-      </c>
-      <c r="H29" s="24"/>
-    </row>
-    <row r="30" spans="1:8" ht="22.5" customHeight="1">
-      <c r="A30" s="34" t="s">
-        <v>121</v>
-      </c>
-      <c r="B30" s="36" t="s">
-        <v>122</v>
       </c>
       <c r="C30" s="23"/>
       <c r="D30" s="36" t="s">
+        <v>121</v>
+      </c>
+      <c r="E30" s="36" t="s">
+        <v>122</v>
+      </c>
+      <c r="F30" s="35" t="s">
         <v>123</v>
       </c>
-      <c r="E30" s="36" t="s">
+      <c r="G30" s="53" t="s">
+        <v>14</v>
+      </c>
+      <c r="H30" s="24"/>
+    </row>
+    <row r="31" spans="1:8" ht="13.5" customHeight="1">
+      <c r="A31" s="34" t="s">
         <v>124</v>
       </c>
-      <c r="F30" s="35" t="s">
-        <v>125</v>
-      </c>
-      <c r="G30" s="59" t="s">
-        <v>14</v>
-      </c>
-      <c r="H30" s="24"/>
-    </row>
-    <row r="31" spans="1:8" ht="18.75" customHeight="1">
-      <c r="A31" s="34" t="s">
-        <v>126</v>
-      </c>
       <c r="B31" s="36" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C31" s="28"/>
       <c r="D31" s="35" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="E31" s="36" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="F31" s="35" t="s">
         <v>45</v>
@@ -2489,154 +2542,202 @@
       </c>
       <c r="H31" s="26"/>
     </row>
-    <row r="32" spans="1:8" ht="17.25" customHeight="1">
+    <row r="32" spans="1:8" ht="12" customHeight="1">
       <c r="A32" s="44" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B32" s="35" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C32" s="23"/>
       <c r="D32" s="36" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="E32" s="35" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="F32" s="35" t="s">
         <v>45</v>
       </c>
-      <c r="G32" s="57" t="s">
+      <c r="G32" s="51" t="s">
         <v>7</v>
       </c>
       <c r="H32" s="24"/>
     </row>
     <row r="33" spans="1:8" ht="12.75">
       <c r="A33" s="34" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B33" s="36" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C33" s="23"/>
       <c r="D33" s="36" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="E33" s="36" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="F33" s="35" t="s">
         <v>45</v>
       </c>
-      <c r="G33" s="57" t="s">
+      <c r="G33" s="51" t="s">
         <v>7</v>
       </c>
       <c r="H33" s="24"/>
     </row>
-    <row r="34" spans="1:8" ht="24" customHeight="1">
+    <row r="34" spans="1:8" ht="12.75" customHeight="1">
       <c r="A34" s="34" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B34" s="36" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C34" s="28"/>
       <c r="D34" s="35" t="s">
+        <v>134</v>
+      </c>
+      <c r="E34" s="36" t="s">
+        <v>135</v>
+      </c>
+      <c r="F34" s="35" t="s">
         <v>136</v>
-      </c>
-      <c r="E34" s="36" t="s">
-        <v>137</v>
-      </c>
-      <c r="F34" s="35" t="s">
-        <v>138</v>
       </c>
       <c r="G34" s="37" t="s">
         <v>7</v>
       </c>
       <c r="H34" s="26"/>
     </row>
-    <row r="35" spans="1:8" ht="15.75" customHeight="1">
+    <row r="35" spans="1:8" ht="12.75" customHeight="1">
       <c r="A35" s="44" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B35" s="35" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C35" s="23"/>
       <c r="D35" s="36" t="s">
+        <v>138</v>
+      </c>
+      <c r="E35" s="35" t="s">
+        <v>139</v>
+      </c>
+      <c r="F35" s="35" t="s">
         <v>140</v>
       </c>
-      <c r="E35" s="35" t="s">
+      <c r="G35" s="51" t="s">
+        <v>7</v>
+      </c>
+      <c r="H35" s="24"/>
+    </row>
+    <row r="36" spans="1:8" ht="12.75" customHeight="1">
+      <c r="A36" s="34" t="s">
         <v>141</v>
       </c>
-      <c r="F35" s="35" t="s">
-        <v>142</v>
-      </c>
-      <c r="G35" s="57" t="s">
-        <v>7</v>
-      </c>
-      <c r="H35" s="24"/>
-    </row>
-    <row r="36" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A36" s="34" t="s">
-        <v>143</v>
-      </c>
       <c r="B36" s="36" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C36" s="23"/>
       <c r="D36" s="36" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="E36" s="36" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="F36" s="35" t="s">
-        <v>105</v>
-      </c>
-      <c r="G36" s="57" t="s">
+        <v>103</v>
+      </c>
+      <c r="G36" s="51" t="s">
         <v>7</v>
       </c>
       <c r="H36" s="24"/>
     </row>
-    <row r="37" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A37" s="13"/>
-      <c r="B37" s="14"/>
+    <row r="37" spans="1:8" ht="13.5" customHeight="1">
+      <c r="A37" s="13" t="s">
+        <v>146</v>
+      </c>
+      <c r="B37" s="14" t="s">
+        <v>42</v>
+      </c>
       <c r="C37" s="28"/>
-      <c r="D37" s="16"/>
-      <c r="E37" s="14"/>
-      <c r="F37" s="16"/>
-      <c r="G37" s="17"/>
+      <c r="D37" s="16" t="s">
+        <v>147</v>
+      </c>
+      <c r="E37" s="14" t="s">
+        <v>148</v>
+      </c>
+      <c r="F37" s="16" t="s">
+        <v>149</v>
+      </c>
+      <c r="G37" s="17" t="s">
+        <v>7</v>
+      </c>
       <c r="H37" s="26"/>
     </row>
-    <row r="38" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A38" s="22"/>
-      <c r="B38" s="16"/>
+    <row r="38" spans="1:8" ht="12" customHeight="1">
+      <c r="A38" s="22" t="s">
+        <v>150</v>
+      </c>
+      <c r="B38" s="16" t="s">
+        <v>42</v>
+      </c>
       <c r="C38" s="23"/>
-      <c r="D38" s="14"/>
-      <c r="E38" s="16"/>
-      <c r="F38" s="16"/>
-      <c r="G38" s="16"/>
+      <c r="D38" s="14" t="s">
+        <v>151</v>
+      </c>
+      <c r="E38" s="16" t="s">
+        <v>152</v>
+      </c>
+      <c r="F38" s="16" t="s">
+        <v>110</v>
+      </c>
+      <c r="G38" s="55" t="s">
+        <v>7</v>
+      </c>
       <c r="H38" s="24"/>
     </row>
-    <row r="39" spans="1:8" ht="30.75" customHeight="1">
-      <c r="A39" s="13"/>
-      <c r="B39" s="14"/>
+    <row r="39" spans="1:8" ht="12" customHeight="1">
+      <c r="A39" s="13" t="s">
+        <v>153</v>
+      </c>
+      <c r="B39" s="14" t="s">
+        <v>42</v>
+      </c>
       <c r="C39" s="23"/>
-      <c r="D39" s="14"/>
-      <c r="E39" s="14"/>
-      <c r="F39" s="16"/>
-      <c r="G39" s="16"/>
+      <c r="D39" s="14" t="s">
+        <v>154</v>
+      </c>
+      <c r="E39" s="14" t="s">
+        <v>155</v>
+      </c>
+      <c r="F39" s="16" t="s">
+        <v>156</v>
+      </c>
+      <c r="G39" s="55" t="s">
+        <v>7</v>
+      </c>
       <c r="H39" s="24"/>
     </row>
-    <row r="40" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A40" s="13"/>
-      <c r="B40" s="14"/>
+    <row r="40" spans="1:8" ht="24" customHeight="1">
+      <c r="A40" s="13" t="s">
+        <v>157</v>
+      </c>
+      <c r="B40" s="14" t="s">
+        <v>158</v>
+      </c>
       <c r="C40" s="27"/>
-      <c r="D40" s="16"/>
-      <c r="E40" s="14"/>
-      <c r="F40" s="16"/>
-      <c r="G40" s="17"/>
+      <c r="D40" s="16" t="s">
+        <v>159</v>
+      </c>
+      <c r="E40" s="14" t="s">
+        <v>160</v>
+      </c>
+      <c r="F40" s="16" t="s">
+        <v>161</v>
+      </c>
+      <c r="G40" s="17" t="s">
+        <v>7</v>
+      </c>
       <c r="H40" s="26"/>
     </row>
     <row r="41" spans="1:8" ht="15.75" customHeight="1">

--- a/tmacbd/tmacbd.xlsx
+++ b/tmacbd/tmacbd.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nafees\Desktop\office\tmacbd\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{362B5AFA-DB4D-4324-90AD-18B7179DB7C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0F6E56A-A16E-489D-9FB4-1DFB45A1242D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1828,8 +1828,8 @@
   <dimension ref="A1:I980"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F19" sqref="F19"/>
+      <pane ySplit="6" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J35" sqref="J35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -3949,7 +3949,7 @@
       <formula1>"PASS,FAIL,WARNING"</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
-  <pageSetup orientation="landscape" r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup scale="65" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>